--- a/biology/Zoologie/Ancylostomatidae/Ancylostomatidae.xlsx
+++ b/biology/Zoologie/Ancylostomatidae/Ancylostomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ancylostomatidae sont une famille de nématodes (les nématodes sont un embranchement de vers non segmentés, recouverts d'une épaisse cuticule et mènant une vie libre ou parasitaire).
 Ce sont des vers parasites.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancylostomatinae Looss, 1905
 Ancylostomatini Looss, 1905
